--- a/NUnitLiteRunnerTest/DataSources/Data2.xlsx
+++ b/NUnitLiteRunnerTest/DataSources/Data2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New folder\Interview\Interview.Test2\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New folder\NUnitLiteRunnerTest\NUnitLiteRunnerTest\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418F8690-72D7-48F4-BAD2-4E87356DB096}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA1E70-A671-4987-9D36-5672820951CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{485695C9-2B4C-4F16-B26D-B7C8415B864D}"/>
+    <workbookView xWindow="4470" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{485695C9-2B4C-4F16-B26D-B7C8415B864D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Email</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>abs@gmail.com</t>
-  </si>
-  <si>
     <t>plover@icloud.com</t>
   </si>
   <si>
@@ -231,7 +228,16 @@
     <t>Or1hshafhausf</t>
   </si>
   <si>
-    <t>austinr@icloud.com</t>
+    <t>initial@mail.com</t>
+  </si>
+  <si>
+    <t>mail@gmail.com</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://austinrgovender.github.io/TestSampleWeb/index.html</t>
   </si>
 </sst>
 </file>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B61DF12-164E-462F-A985-166789838CD9}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +617,7 @@
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,10 +639,13 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -651,240 +660,243 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +913,9 @@
     <hyperlink ref="F11" r:id="rId10" xr:uid="{5C1A152E-4CE1-4CCA-8336-9E284A978AB4}"/>
     <hyperlink ref="F12" r:id="rId11" xr:uid="{AA7CB48E-2D6C-421A-836D-08423AE41FE7}"/>
     <hyperlink ref="A2" r:id="rId12" xr:uid="{9D07E12E-3367-431A-B0D5-7E6703CAD77E}"/>
+    <hyperlink ref="H2" r:id="rId13" xr:uid="{FF25F753-B194-4967-88CA-292756119396}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
--- a/NUnitLiteRunnerTest/DataSources/Data2.xlsx
+++ b/NUnitLiteRunnerTest/DataSources/Data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New folder\NUnitLiteRunnerTest\NUnitLiteRunnerTest\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA1E70-A671-4987-9D36-5672820951CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DC65E6-2E06-44A4-9133-13F3A1B84E61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{485695C9-2B4C-4F16-B26D-B7C8415B864D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Email</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>plover@icloud.com</t>
-  </si>
-  <si>
-    <t>esasaki@icloud.com</t>
-  </si>
-  <si>
     <t>jguyer@msn.com</t>
   </si>
   <si>
@@ -228,16 +222,16 @@
     <t>Or1hshafhausf</t>
   </si>
   <si>
-    <t>initial@mail.com</t>
-  </si>
-  <si>
-    <t>mail@gmail.com</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://austinrgovender.github.io/TestSampleWeb/index.html</t>
+  </si>
+  <si>
+    <t>updated@mail.com</t>
+  </si>
+  <si>
+    <t>thisupdated@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -603,7 +597,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,142 +660,142 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -809,94 +803,94 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -914,8 +908,9 @@
     <hyperlink ref="F12" r:id="rId11" xr:uid="{AA7CB48E-2D6C-421A-836D-08423AE41FE7}"/>
     <hyperlink ref="A2" r:id="rId12" xr:uid="{9D07E12E-3367-431A-B0D5-7E6703CAD77E}"/>
     <hyperlink ref="H2" r:id="rId13" xr:uid="{FF25F753-B194-4967-88CA-292756119396}"/>
+    <hyperlink ref="A3:A4" r:id="rId14" display="updated@mail.com" xr:uid="{C45667DA-6761-4840-9180-F65661B75D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>